--- a/documents/Line follower list of components.xlsx
+++ b/documents/Line follower list of components.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\LineFollower\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECA681E-273D-4AAC-93AC-A25779F6542E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CD5577-F17F-44A7-885C-4B1190FD4109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Components!$A$1:$E$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,9 +48,6 @@
     <t>Acumulator Lipo Gens Ace - Soaring - 1300mAh - 7.4V - 30C - 2S1P cu EC3/XT60/T-plug</t>
   </si>
   <si>
-    <t>https://hpi-racing.ro/li-po-2s-74v/acumulator-lipo-gens-ace-soaring-1300mah-74v-30c-2s1p-cu-ec3xt60t-plug.html?srsltid=AfmBOoqrLmm7woFron-sAhYuLE-4X71MDXyWi0YmxIS1H99dnHI2GI9_</t>
-  </si>
-  <si>
     <t>Multiplexor - 8 Canale (74HC4051)</t>
   </si>
   <si>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>https://hpi-racing.ro/li-po-2s-74v/acumulator-lipo-gens-ace-soaring-1300mah-74v-30c-2s1p-cu-ec3xt60t-plug.html?srsltid=AfmBOoqrLmm7woFron-sAhYuLE-4X71MDXyWi0YmxIS1H99dnHI2GI9_
+https://www.emag.ro/acumulator-gens-ace-g-tech-soaring-1300mah-7-4v-30c-2s1p-xt60-kxg0060209/pd/DWFL1GMBM/?cmpid=148298&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=(RO:eMAG!)_3P_NO_SALES_%3e_Aparate_foto_and_accesorii&amp;utm_content=80597387921&amp;gad_source=1&amp;gclid=Cj0KCQjwmt24BhDPARIsAJFYKk3lc7Je8EYjjtfbYOr9tVtkeVb9u33s-5edVP7_eIQ-sjCZXUAgEMMaAgkJEALw_wcB</t>
   </si>
 </sst>
 </file>
@@ -155,13 +159,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,7 +453,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,19 +470,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -489,16 +496,16 @@
         <f>C2*D2</f>
         <v>69</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -511,15 +518,15 @@
         <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -532,15 +539,15 @@
         <v>180</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -553,15 +560,15 @@
         <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -574,12 +581,12 @@
         <v>298</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7">
@@ -593,12 +600,12 @@
         <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -611,12 +618,12 @@
         <v>132</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -629,12 +636,12 @@
         <v>133.23240000000001</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <f>SUM(E2:E9)</f>
@@ -642,8 +649,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E9" xr:uid="{D924734B-E583-4FEC-97F0-6BFEE1739507}"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{FD206ACC-A73E-45C8-BB7F-49E7866132A9}"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://hpi-racing.ro/li-po-2s-74v/acumulator-lipo-gens-ace-soaring-1300mah-74v-30c-2s1p-cu-ec3xt60t-plug.html?srsltid=AfmBOoqrLmm7woFron-sAhYuLE-4X71MDXyWi0YmxIS1H99dnHI2GI9_" xr:uid="{FD206ACC-A73E-45C8-BB7F-49E7866132A9}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{B31D3B95-D51F-4A8E-8A8B-B19574C93558}"/>
     <hyperlink ref="F5" r:id="rId3" xr:uid="{CFD4AA5C-8825-43CB-AFD7-333B6354A6ED}"/>
     <hyperlink ref="F6" r:id="rId4" xr:uid="{EB027B97-9762-40FF-9F2F-76FF93FC3273}"/>
